--- a/medicine/Handicap/Roger_Golay/Roger_Golay.xlsx
+++ b/medicine/Handicap/Roger_Golay/Roger_Golay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roger Golay, né le 23 septembre 1959 à Genève (originaire du Chenit), est un homme politique suisse, membre du Mouvement citoyens genevois qu'il préside de 2012 à 2016[1].
+Roger Golay, né le 23 septembre 1959 à Genève (originaire du Chenit), est un homme politique suisse, membre du Mouvement citoyens genevois qu'il préside de 2012 à 2016.
 Il est député du canton de Genève au Conseil national de fin 2013 à fin 2019 et depuis fin 2023.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Golay naît le 23 septembre 1959 à Genève. Il est originaire du Chenit, dans le canton de Vaud[1].
-Ancien gendarme de profession, il part à la retraite avec le grade de maréchal de gendarmerie[2]. Il a le grade de soldat à l'armée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Golay naît le 23 septembre 1959 à Genève. Il est originaire du Chenit, dans le canton de Vaud.
+Ancien gendarme de profession, il part à la retraite avec le grade de maréchal de gendarmerie. Il a le grade de soldat à l'armée.
 </t>
         </is>
       </c>
@@ -545,15 +559,52 @@
           <t>Parcours politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été membre du parti Vigilance[3] dans les années 1980, dont il a été président du mouvement jeunesse[4]. Il intègre par la suite le MCG, avant d'être élu député au Grand Conseil du canton de Genève le 9 octobre 2005 puis réélu en 2009[5] et en 2013[6].
-En avril 2012, il est élu président de son parti[7].
-En novembre 2013, après l'élection de Mauro Poggia au Conseil d'État et à son renoncement au Conseil national, Roger Golay le remplace à Berne[8], en abandonnant lui-même son mandat au sein du Grand Conseil de Genève. En 2015, il est élu pour un second mandat de conseiller national[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été membre du parti Vigilance dans les années 1980, dont il a été président du mouvement jeunesse. Il intègre par la suite le MCG, avant d'être élu député au Grand Conseil du canton de Genève le 9 octobre 2005 puis réélu en 2009 et en 2013.
+En avril 2012, il est élu président de son parti.
+En novembre 2013, après l'élection de Mauro Poggia au Conseil d'État et à son renoncement au Conseil national, Roger Golay le remplace à Berne, en abandonnant lui-même son mandat au sein du Grand Conseil de Genève. En 2015, il est élu pour un second mandat de conseiller national.
 En 2015, Roger Golay se présente à l'exécutif de la commune de Lancy, sans succès. L'année suivante, il est remplacé à la présidence du MCG par Ana Roch.
 Il n'est pas réélu au Conseil National en 2019, mais se représente en 2023 et est élu à nouveau, avec deux autres membres du MCG. Il siège dans le groupe parlementaire UDC.
-Associations
-Il est coprésident, avec Balthasar Glättli[10], de l'association Pro-Membro, qui assure la défense des personnes porteuses de prothèse de bras et de jambe[11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roger_Golay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roger_Golay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parcours politique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Associations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est coprésident, avec Balthasar Glättli, de l'association Pro-Membro, qui assure la défense des personnes porteuses de prothèse de bras et de jambe.
 </t>
         </is>
       </c>
